--- a/mathproj_stu_svy_data-dictionary.xlsx
+++ b/mathproj_stu_svy_data-dictionary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Crystal\Desktop\math\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1192E6F2-5232-429C-96A7-EB10720923E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A98ECA91-4550-46F8-AE25-565C6E3D52F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{030BA4F8-F778-44F9-B0BC-6EB2C1BA992D}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="33">
   <si>
     <t>var_name</t>
   </si>
@@ -115,6 +115,24 @@
   </si>
   <si>
     <t>I want to learn more math.</t>
+  </si>
+  <si>
+    <t>drop</t>
+  </si>
+  <si>
+    <t>svy_date</t>
+  </si>
+  <si>
+    <t>Date of survey</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>YYYY-MM-DD</t>
+  </si>
+  <si>
+    <t>Y</t>
   </si>
 </sst>
 </file>
@@ -144,7 +162,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -167,15 +185,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -490,10 +523,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96C48AD4-2B14-47E8-837A-8D65562ED249}">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -506,7 +539,7 @@
     <col min="6" max="6" width="38.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -522,11 +555,14 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
@@ -540,66 +576,70 @@
         <v>9</v>
       </c>
       <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F2" s="5"/>
+      <c r="G2" s="2"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3" s="2"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B4" s="2" t="s">
         <v>11</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>15</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F4" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="2"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F5" s="2"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="E5" s="2"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="2"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>8</v>
@@ -610,14 +650,15 @@
       <c r="E6" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F6" s="2"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F6" s="5"/>
+      <c r="G6" s="2"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>8</v>
@@ -628,14 +669,15 @@
       <c r="E7" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F7" s="2"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F7" s="5"/>
+      <c r="G7" s="2"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>8</v>
@@ -646,7 +688,27 @@
       <c r="E8" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F8" s="2"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="2"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9" s="5"/>
+      <c r="G9" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
